--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Ephb4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H2">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N2">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O2">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P2">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q2">
-        <v>2.428237125186</v>
+        <v>6.377970308072888</v>
       </c>
       <c r="R2">
-        <v>21.854134126674</v>
+        <v>57.401732772656</v>
       </c>
       <c r="S2">
-        <v>0.14514969916468</v>
+        <v>0.2675695105892339</v>
       </c>
       <c r="T2">
-        <v>0.1451496991646799</v>
+        <v>0.2675695105892339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H3">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.605727</v>
       </c>
       <c r="O3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P3">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q3">
-        <v>0.6280402013713333</v>
+        <v>1.563275154642445</v>
       </c>
       <c r="R3">
-        <v>5.652361812342001</v>
+        <v>14.069476391782</v>
       </c>
       <c r="S3">
-        <v>0.03754157505741591</v>
+        <v>0.06558273993758575</v>
       </c>
       <c r="T3">
-        <v>0.03754157505741591</v>
+        <v>0.06558273993758575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H4">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N4">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P4">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q4">
-        <v>0.20752772952</v>
+        <v>1.130059615210667</v>
       </c>
       <c r="R4">
-        <v>1.86774956568</v>
+        <v>10.170536536896</v>
       </c>
       <c r="S4">
-        <v>0.01240512600508475</v>
+        <v>0.04740842048070578</v>
       </c>
       <c r="T4">
-        <v>0.01240512600508474</v>
+        <v>0.04740842048070579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H5">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N5">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O5">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P5">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q5">
-        <v>0.003978088193333333</v>
+        <v>0.005248255024888889</v>
       </c>
       <c r="R5">
-        <v>0.03580279374</v>
+        <v>0.047234295224</v>
       </c>
       <c r="S5">
-        <v>0.0002377932115952922</v>
+        <v>0.000220175535574312</v>
       </c>
       <c r="T5">
-        <v>0.0002377932115952922</v>
+        <v>0.000220175535574312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N6">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O6">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P6">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q6">
-        <v>5.640498300006</v>
+        <v>5.951972138384001</v>
       </c>
       <c r="R6">
-        <v>50.76448470005401</v>
+        <v>53.56774924545601</v>
       </c>
       <c r="S6">
-        <v>0.3371650251505182</v>
+        <v>0.2496979752465105</v>
       </c>
       <c r="T6">
-        <v>0.3371650251505182</v>
+        <v>0.2496979752465105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.605727</v>
       </c>
       <c r="O7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P7">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q7">
         <v>1.458860690098</v>
@@ -883,10 +883,10 @@
         <v>13.129746210882</v>
       </c>
       <c r="S7">
-        <v>0.08720449419645625</v>
+        <v>0.06120232958333381</v>
       </c>
       <c r="T7">
-        <v>0.08720449419645623</v>
+        <v>0.06120232958333381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N8">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P8">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q8">
-        <v>0.4820615719200001</v>
+        <v>1.054580535744</v>
       </c>
       <c r="R8">
-        <v>4.338554147280001</v>
+        <v>9.491224821696001</v>
       </c>
       <c r="S8">
-        <v>0.02881559276781135</v>
+        <v>0.04424191148535047</v>
       </c>
       <c r="T8">
-        <v>0.02881559276781135</v>
+        <v>0.04424191148535048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N9">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O9">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P9">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q9">
-        <v>0.009240613060000001</v>
+        <v>0.004897712936</v>
       </c>
       <c r="R9">
-        <v>0.08316551754000001</v>
+        <v>0.044079416424</v>
       </c>
       <c r="S9">
-        <v>0.0005523645906918884</v>
+        <v>0.0002054695443836337</v>
       </c>
       <c r="T9">
-        <v>0.0005523645906918884</v>
+        <v>0.0002054695443836337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H10">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I10">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J10">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N10">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O10">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P10">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q10">
-        <v>0.849309886469</v>
+        <v>3.490503640571555</v>
       </c>
       <c r="R10">
-        <v>7.643788978220999</v>
+        <v>31.414532765144</v>
       </c>
       <c r="S10">
-        <v>0.05076813678529067</v>
+        <v>0.1464341013998645</v>
       </c>
       <c r="T10">
-        <v>0.05076813678529066</v>
+        <v>0.1464341013998645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H11">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I11">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J11">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.605727</v>
       </c>
       <c r="O11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P11">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q11">
-        <v>0.2196658417714445</v>
+        <v>0.8555413956047778</v>
       </c>
       <c r="R11">
-        <v>1.976992575943</v>
+        <v>7.699872560443001</v>
       </c>
       <c r="S11">
-        <v>0.01313069078763839</v>
+        <v>0.0358917933846525</v>
       </c>
       <c r="T11">
-        <v>0.01313069078763839</v>
+        <v>0.03589179338465251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H12">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I12">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J12">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N12">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P12">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q12">
-        <v>0.07258572508000001</v>
+        <v>0.6184533653226666</v>
       </c>
       <c r="R12">
-        <v>0.65327152572</v>
+        <v>5.566080287904</v>
       </c>
       <c r="S12">
-        <v>0.00433886627040394</v>
+        <v>0.02594544287423163</v>
       </c>
       <c r="T12">
-        <v>0.004338866270403939</v>
+        <v>0.02594544287423163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H13">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I13">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J13">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N13">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O13">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P13">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q13">
-        <v>0.001391391967777778</v>
+        <v>0.002872238719555555</v>
       </c>
       <c r="R13">
-        <v>0.01252252771</v>
+        <v>0.025850148476</v>
       </c>
       <c r="S13">
-        <v>8.317150061183856E-05</v>
+        <v>0.0001204965641677843</v>
       </c>
       <c r="T13">
-        <v>8.317150061183853E-05</v>
+        <v>0.0001204965641677843</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H14">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I14">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J14">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.000423</v>
+        <v>34.82273866666667</v>
       </c>
       <c r="N14">
-        <v>99.00126899999999</v>
+        <v>104.468216</v>
       </c>
       <c r="O14">
-        <v>0.7430839250895138</v>
+        <v>0.7026863693863559</v>
       </c>
       <c r="P14">
-        <v>0.7430839250895138</v>
+        <v>0.702686369386356</v>
       </c>
       <c r="Q14">
-        <v>3.513148031593</v>
+        <v>0.9292679964791111</v>
       </c>
       <c r="R14">
-        <v>31.618332284337</v>
+        <v>8.363411968312001</v>
       </c>
       <c r="S14">
-        <v>0.2100010639890251</v>
+        <v>0.03898478215074691</v>
       </c>
       <c r="T14">
-        <v>0.210001063989025</v>
+        <v>0.03898478215074691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H15">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I15">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J15">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.605727</v>
       </c>
       <c r="O15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="P15">
-        <v>0.1921915175039882</v>
+        <v>0.1722322446965897</v>
       </c>
       <c r="Q15">
-        <v>0.9086419832412224</v>
+        <v>0.2277686318265556</v>
       </c>
       <c r="R15">
-        <v>8.177777849171001</v>
+        <v>2.049917686439</v>
       </c>
       <c r="S15">
-        <v>0.05431475746247766</v>
+        <v>0.009555381791017647</v>
       </c>
       <c r="T15">
-        <v>0.05431475746247764</v>
+        <v>0.009555381791017647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H16">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I16">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J16">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.82036</v>
+        <v>6.169951999999999</v>
       </c>
       <c r="N16">
-        <v>8.461080000000001</v>
+        <v>18.509856</v>
       </c>
       <c r="O16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="P16">
-        <v>0.06350719137646997</v>
+        <v>0.1245031647760143</v>
       </c>
       <c r="Q16">
-        <v>0.3002489447600001</v>
+        <v>0.1646492824213333</v>
       </c>
       <c r="R16">
-        <v>2.702240502840001</v>
+        <v>1.481843541792</v>
       </c>
       <c r="S16">
-        <v>0.01794760633316993</v>
+        <v>0.006907389935726437</v>
       </c>
       <c r="T16">
-        <v>0.01794760633316993</v>
+        <v>0.006907389935726438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H17">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I17">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J17">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05406333333333333</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N17">
-        <v>0.16219</v>
+        <v>0.085964</v>
       </c>
       <c r="O17">
-        <v>0.001217366030028042</v>
+        <v>0.000578221141039957</v>
       </c>
       <c r="P17">
-        <v>0.001217366030028042</v>
+        <v>0.0005782211410399571</v>
       </c>
       <c r="Q17">
-        <v>0.005755456318888889</v>
+        <v>0.0007646688831111111</v>
       </c>
       <c r="R17">
-        <v>0.05179910687</v>
+        <v>0.006882019948</v>
       </c>
       <c r="S17">
-        <v>0.0003440367271290227</v>
+        <v>3.207949691422707E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003440367271290227</v>
+        <v>3.207949691422707E-05</v>
       </c>
     </row>
   </sheetData>
